--- a/Device Interaction/Manual Study/Dimmers.xlsx
+++ b/Device Interaction/Manual Study/Dimmers.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="42">
   <si>
     <t>Application</t>
   </si>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -312,23 +312,8 @@
     </font>
     <font/>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -456,34 +441,34 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -551,7 +536,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -566,25 +551,25 @@
     <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="15" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -680,9 +665,8 @@
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/bright-when-dark-and-or-bright-after-sunset.groovy","bright-when-dark-and-or-bright-after-sunset.groovy")</f>
-        <v>bright-when-dark-and-or-bright-after-sunset.groovy</v>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -728,9 +712,8 @@
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/gentle-wake-up.groovy","gentle-wake-up.groovy")</f>
-        <v>gentle-wake-up.groovy</v>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>15</v>
@@ -776,9 +759,8 @@
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/lighting-director.groovy","lighting-director.groovy")</f>
-        <v>lighting-director.groovy</v>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>15</v>
@@ -824,9 +806,8 @@
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/mood-cube.groovy","mood-cube.groovy")</f>
-        <v>mood-cube.groovy</v>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>17</v>
@@ -872,9 +853,8 @@
       <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/buffered-event-sender.groovy","buffered-event-sender.groovy")</f>
-        <v>buffered-event-sender.groovy</v>
+      <c r="D6" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>19</v>
@@ -920,9 +900,8 @@
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/circadian-daylight.groovy","circadian-daylight.groovy")</f>
-        <v>circadian-daylight.groovy</v>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>16</v>
@@ -968,9 +947,8 @@
       <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/groveStreams.groovy","groveStreams.groovy")</f>
-        <v>groveStreams.groovy</v>
+      <c r="D8" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>19</v>
@@ -1016,9 +994,8 @@
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/influxdb-logger.groovy","influxdb-logger.groovy")</f>
-        <v>influxdb-logger.groovy</v>
+      <c r="D9" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>19</v>
@@ -1064,9 +1041,8 @@
       <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="13" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initial-state-event-sender.groovy","initial-state-event-sender.groovy")</f>
-        <v>initial-state-event-sender.groovy</v>
+      <c r="D10" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>19</v>
@@ -1112,9 +1088,8 @@
       <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="13" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initialstate-smart-app-v1.2.0.groovy","initialstate-smart-app-v1.2.0.groovy")</f>
-        <v>initialstate-smart-app-v1.2.0.groovy</v>
+      <c r="D11" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>19</v>
@@ -1160,9 +1135,8 @@
       <c r="C12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/unbuffered-event-sender.groovy","unbuffered-event-sender.groovy")</f>
-        <v>unbuffered-event-sender.groovy</v>
+      <c r="D12" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>19</v>
